--- a/CE_procesado.xlsx
+++ b/CE_procesado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="163">
   <si>
     <t>Eontema</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Permeabilidad (1-100)</t>
   </si>
   <si>
+    <t>M.O. %</t>
+  </si>
+  <si>
     <t>FANEROZOICO</t>
   </si>
   <si>
@@ -181,16 +184,13 @@
     <t>GC</t>
   </si>
   <si>
+    <t>Sello</t>
+  </si>
+  <si>
+    <t>Generadora</t>
+  </si>
+  <si>
     <t>Reservorio</t>
-  </si>
-  <si>
-    <t>Sello</t>
-  </si>
-  <si>
-    <t>Sello local</t>
-  </si>
-  <si>
-    <t>Generadora</t>
   </si>
   <si>
     <t>Paralelo</t>
@@ -860,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,22 +927,25 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -951,13 +954,13 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -986,22 +989,25 @@
       <c r="T2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -1010,13 +1016,13 @@
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3">
         <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1045,22 +1051,25 @@
       <c r="T3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -1069,13 +1078,13 @@
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1104,22 +1113,25 @@
       <c r="T4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>42</v>
@@ -1128,19 +1140,16 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
       </c>
       <c r="M5" t="s">
         <v>62</v>
@@ -1166,22 +1175,25 @@
       <c r="T5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>61</v>
@@ -1190,19 +1202,16 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
         <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
       </c>
       <c r="M6" t="s">
         <v>59</v>
@@ -1228,22 +1237,25 @@
       <c r="T6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>63</v>
@@ -1252,13 +1264,13 @@
         <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1287,22 +1299,25 @@
       <c r="T7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>85</v>
@@ -1311,13 +1326,13 @@
         <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1346,22 +1361,25 @@
       <c r="T8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>105</v>
@@ -1370,13 +1388,13 @@
         <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9">
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1405,22 +1423,25 @@
       <c r="T9">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>115</v>
@@ -1429,13 +1450,13 @@
         <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10">
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1464,22 +1485,25 @@
       <c r="T10">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>123</v>
@@ -1488,19 +1512,16 @@
         <v>125</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
@@ -1526,22 +1547,25 @@
       <c r="T11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>125</v>
@@ -1550,13 +1574,13 @@
         <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1585,22 +1609,25 @@
       <c r="T12">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>138</v>
@@ -1609,13 +1636,13 @@
         <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -1644,22 +1671,25 @@
       <c r="T13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -1668,19 +1698,16 @@
         <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>56</v>
       </c>
       <c r="M14" t="s">
         <v>61</v>
@@ -1706,22 +1733,25 @@
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>154</v>
@@ -1730,13 +1760,13 @@
         <v>174</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15">
         <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1765,22 +1795,25 @@
       <c r="T15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <v>174</v>
@@ -1789,13 +1822,13 @@
         <v>192</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16">
         <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -1824,22 +1857,25 @@
       <c r="T16">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>192</v>
@@ -1848,19 +1884,16 @@
         <v>195</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>57</v>
       </c>
       <c r="M17" t="s">
         <v>59</v>
@@ -1886,22 +1919,25 @@
       <c r="T17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>195</v>
@@ -1910,13 +1946,13 @@
         <v>205</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18">
         <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -1945,22 +1981,25 @@
       <c r="T18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19">
         <v>205</v>
@@ -1969,13 +2008,13 @@
         <v>230</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19">
         <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2004,22 +2043,25 @@
       <c r="T19">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>230</v>
@@ -2028,19 +2070,16 @@
         <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>10</v>
-      </c>
-      <c r="L20" t="s">
-        <v>58</v>
       </c>
       <c r="M20" t="s">
         <v>59</v>
@@ -2066,22 +2105,25 @@
       <c r="T20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>256</v>
@@ -2090,19 +2132,16 @@
         <v>260</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21">
         <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>56</v>
       </c>
       <c r="M21" t="s">
         <v>61</v>
@@ -2128,22 +2167,25 @@
       <c r="T21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>260</v>
@@ -2152,19 +2194,16 @@
         <v>280</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22">
         <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>10</v>
-      </c>
-      <c r="L22" t="s">
-        <v>55</v>
       </c>
       <c r="M22" t="s">
         <v>62</v>
@@ -2190,22 +2229,25 @@
       <c r="T22">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>280</v>
@@ -2214,13 +2256,13 @@
         <v>282</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2252,22 +2294,25 @@
       <c r="T23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>282</v>
@@ -2276,19 +2321,19 @@
         <v>308</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24">
         <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" t="s">
         <v>63</v>
@@ -2314,22 +2359,25 @@
       <c r="T24">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>308</v>
@@ -2338,19 +2386,19 @@
         <v>343</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25">
         <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" t="s">
         <v>60</v>
@@ -2376,22 +2424,25 @@
       <c r="T25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>343</v>
@@ -2400,13 +2451,13 @@
         <v>348</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26">
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -2438,22 +2489,25 @@
       <c r="T26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27">
         <v>348</v>
@@ -2462,19 +2516,19 @@
         <v>368</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27">
         <v>45</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s">
         <v>64</v>
@@ -2500,22 +2554,25 @@
       <c r="T27">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28">
         <v>368</v>
@@ -2524,19 +2581,19 @@
         <v>388</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I28">
         <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
         <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
         <v>59</v>
@@ -2562,22 +2619,25 @@
       <c r="T28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29">
         <v>388</v>
@@ -2586,13 +2646,13 @@
         <v>396</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29">
         <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -2621,22 +2681,25 @@
       <c r="T29">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>396</v>
@@ -2645,13 +2708,13 @@
         <v>406</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30">
         <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -2680,22 +2743,25 @@
       <c r="T30">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31">
         <v>406</v>
@@ -2704,13 +2770,13 @@
         <v>410</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I31">
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -2742,22 +2808,25 @@
       <c r="T31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32">
         <v>410</v>
@@ -2766,19 +2835,19 @@
         <v>430</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32">
         <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
         <v>62</v>
@@ -2804,22 +2873,25 @@
       <c r="T32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33">
         <v>430</v>
@@ -2828,13 +2900,13 @@
         <v>432</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -2866,22 +2938,25 @@
       <c r="T33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>432</v>
@@ -2890,19 +2965,19 @@
         <v>460</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34">
         <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M34" t="s">
         <v>64</v>
@@ -2928,22 +3003,25 @@
       <c r="T34">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>460</v>
@@ -2952,19 +3030,19 @@
         <v>500</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M35" t="s">
         <v>59</v>
@@ -2990,22 +3068,25 @@
       <c r="T35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>500</v>
@@ -3014,13 +3095,13 @@
         <v>537.5</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36">
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <v>10</v>
@@ -3049,22 +3130,25 @@
       <c r="T36">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>537.5</v>
@@ -3073,19 +3157,19 @@
         <v>587.5</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37">
         <v>45</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
         <v>10</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M37" t="s">
         <v>62</v>
@@ -3111,22 +3195,25 @@
       <c r="T37">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>587.5</v>
@@ -3135,13 +3222,13 @@
         <v>637.5</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38">
         <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>10</v>
@@ -3170,22 +3257,25 @@
       <c r="T38">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>637.5</v>
@@ -3194,13 +3284,13 @@
         <v>662.5</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <v>45</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>10</v>
@@ -3229,22 +3319,25 @@
       <c r="T39">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>662.5</v>
@@ -3253,13 +3346,13 @@
         <v>675</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I40">
         <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>10</v>
@@ -3288,22 +3381,25 @@
       <c r="T40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>675</v>
@@ -3312,16 +3408,19 @@
         <v>705</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I41">
         <v>50</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>10</v>
+      </c>
+      <c r="L41" t="s">
+        <v>56</v>
       </c>
       <c r="M41" t="s">
         <v>61</v>
@@ -3347,22 +3446,25 @@
       <c r="T41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <v>705</v>
@@ -3371,19 +3473,19 @@
         <v>750</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I42">
         <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M42" t="s">
         <v>59</v>
@@ -3409,22 +3511,25 @@
       <c r="T42">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>750</v>
@@ -3433,16 +3538,19 @@
         <v>800</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I43">
         <v>10</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>10</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
       </c>
       <c r="M43" t="s">
         <v>59</v>
@@ -3468,22 +3576,25 @@
       <c r="T43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44">
         <v>800</v>
@@ -3492,19 +3603,16 @@
         <v>837.5</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44">
         <v>45</v>
       </c>
       <c r="J44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
         <v>10</v>
-      </c>
-      <c r="L44" t="s">
-        <v>55</v>
       </c>
       <c r="M44" t="s">
         <v>64</v>
@@ -3530,22 +3638,25 @@
       <c r="T44">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <v>837.5</v>
@@ -3554,19 +3665,16 @@
         <v>875</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <v>45</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
         <v>10</v>
-      </c>
-      <c r="L45" t="s">
-        <v>55</v>
       </c>
       <c r="M45" t="s">
         <v>63</v>
@@ -3592,22 +3700,25 @@
       <c r="T45">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46">
         <v>875</v>
@@ -3616,19 +3727,16 @@
         <v>900</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K46">
         <v>10</v>
-      </c>
-      <c r="L46" t="s">
-        <v>55</v>
       </c>
       <c r="M46" t="s">
         <v>64</v>
@@ -3654,22 +3762,25 @@
       <c r="T46">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47">
         <v>900</v>
@@ -3678,19 +3789,16 @@
         <v>945</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47">
         <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47">
         <v>10</v>
-      </c>
-      <c r="L47" t="s">
-        <v>55</v>
       </c>
       <c r="M47" t="s">
         <v>65</v>
@@ -3716,22 +3824,25 @@
       <c r="T47">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48">
         <v>945</v>
@@ -3740,19 +3851,16 @@
         <v>1000</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I48">
         <v>60</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K48">
         <v>10</v>
-      </c>
-      <c r="L48" t="s">
-        <v>55</v>
       </c>
       <c r="M48" t="s">
         <v>63</v>
@@ -3778,22 +3886,25 @@
       <c r="T48">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F49">
         <v>1000</v>
@@ -3802,19 +3913,16 @@
         <v>1020</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I49">
         <v>20</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K49">
         <v>10</v>
-      </c>
-      <c r="L49" t="s">
-        <v>55</v>
       </c>
       <c r="M49" t="s">
         <v>63</v>
@@ -3840,22 +3948,25 @@
       <c r="T49">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>1020</v>
@@ -3864,19 +3975,16 @@
         <v>1030</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I50">
         <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>10</v>
-      </c>
-      <c r="L50" t="s">
-        <v>55</v>
       </c>
       <c r="M50" t="s">
         <v>65</v>
@@ -3902,22 +4010,25 @@
       <c r="T50">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51">
         <v>1030</v>
@@ -3926,13 +4037,13 @@
         <v>1045</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I51">
         <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51">
         <v>10</v>
@@ -3961,22 +4072,25 @@
       <c r="T51">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52">
         <v>1045</v>
@@ -3985,13 +4099,13 @@
         <v>1070</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52">
         <v>40</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>10</v>
@@ -4020,22 +4134,25 @@
       <c r="T52">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F53">
         <v>1070</v>
@@ -4044,13 +4161,13 @@
         <v>1090</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53">
         <v>35</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K53">
         <v>10</v>
@@ -4079,22 +4196,25 @@
       <c r="T53">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F54">
         <v>1090</v>
@@ -4103,13 +4223,13 @@
         <v>1115</v>
       </c>
       <c r="H54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I54">
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K54">
         <v>10</v>
@@ -4138,22 +4258,25 @@
       <c r="T54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55">
         <v>1115</v>
@@ -4162,13 +4285,13 @@
         <v>1160</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I55">
         <v>20</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K55">
         <v>10</v>
@@ -4197,22 +4320,25 @@
       <c r="T55">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56">
         <v>1160</v>
@@ -4221,19 +4347,19 @@
         <v>1199</v>
       </c>
       <c r="H56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I56">
         <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K56">
         <v>10</v>
       </c>
       <c r="L56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M56" t="s">
         <v>64</v>
@@ -4259,22 +4385,25 @@
       <c r="T56">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57">
         <v>1199</v>
@@ -4283,13 +4412,13 @@
         <v>1200</v>
       </c>
       <c r="H57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I57">
         <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57">
         <v>10</v>
@@ -4321,22 +4450,25 @@
       <c r="T57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58">
         <v>1200</v>
@@ -4345,19 +4477,19 @@
         <v>1300</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I58">
         <v>60</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K58">
         <v>10</v>
       </c>
       <c r="L58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M58" t="s">
         <v>63</v>
@@ -4383,22 +4515,25 @@
       <c r="T58">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59">
         <v>1300</v>
@@ -4407,13 +4542,13 @@
         <v>1320</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59">
         <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59">
         <v>10</v>
@@ -4442,22 +4577,25 @@
       <c r="T59">
         <v>40</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F60">
         <v>1320</v>
@@ -4466,13 +4604,13 @@
         <v>1335</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I60">
         <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K60">
         <v>10</v>
@@ -4501,22 +4639,25 @@
       <c r="T60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F61">
         <v>1335</v>
@@ -4525,19 +4666,19 @@
         <v>1354</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61">
         <v>20</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61">
         <v>10</v>
       </c>
       <c r="L61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M61" t="s">
         <v>62</v>
@@ -4563,22 +4704,25 @@
       <c r="T61">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62">
         <v>1354</v>
@@ -4587,13 +4731,13 @@
         <v>1355</v>
       </c>
       <c r="H62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I62">
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K62">
         <v>10</v>
@@ -4625,22 +4769,25 @@
       <c r="T62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63">
         <v>1355</v>
@@ -4649,19 +4796,19 @@
         <v>1480</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I63">
         <v>60</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>10</v>
       </c>
       <c r="L63" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M63" t="s">
         <v>63</v>
@@ -4687,22 +4834,25 @@
       <c r="T63">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64">
         <v>1480</v>
@@ -4711,19 +4861,19 @@
         <v>1500</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I64">
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K64">
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M64" t="s">
         <v>59</v>
@@ -4749,22 +4899,25 @@
       <c r="T64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F65">
         <v>1500</v>
@@ -4773,13 +4926,13 @@
         <v>1501</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I65">
         <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
         <v>10</v>
@@ -4811,22 +4964,25 @@
       <c r="T65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66">
         <v>1501</v>
@@ -4835,19 +4991,16 @@
         <v>1535</v>
       </c>
       <c r="H66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I66">
         <v>25</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K66">
         <v>10</v>
-      </c>
-      <c r="L66" t="s">
-        <v>55</v>
       </c>
       <c r="M66" t="s">
         <v>59</v>
@@ -4873,22 +5026,25 @@
       <c r="T66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67">
         <v>1535</v>
@@ -4897,19 +5053,16 @@
         <v>1565</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I67">
         <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67">
         <v>10</v>
-      </c>
-      <c r="L67" t="s">
-        <v>58</v>
       </c>
       <c r="M67" t="s">
         <v>62</v>
@@ -4935,22 +5088,25 @@
       <c r="T67">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F68">
         <v>1565</v>
@@ -4959,19 +5115,16 @@
         <v>1566</v>
       </c>
       <c r="H68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I68">
         <v>10</v>
       </c>
       <c r="J68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68">
         <v>10</v>
-      </c>
-      <c r="L68" t="s">
-        <v>56</v>
       </c>
       <c r="M68" t="s">
         <v>61</v>
@@ -4997,22 +5150,25 @@
       <c r="T68">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F69">
         <v>1566</v>
@@ -5021,19 +5177,16 @@
         <v>1598</v>
       </c>
       <c r="H69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I69">
         <v>75</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K69">
         <v>10</v>
-      </c>
-      <c r="L69" t="s">
-        <v>55</v>
       </c>
       <c r="M69" t="s">
         <v>63</v>
@@ -5059,22 +5212,25 @@
       <c r="T69">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F70">
         <v>1598</v>
@@ -5083,19 +5239,16 @@
         <v>1622</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70">
         <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K70">
         <v>10</v>
-      </c>
-      <c r="L70" t="s">
-        <v>58</v>
       </c>
       <c r="M70" t="s">
         <v>59</v>
@@ -5121,22 +5274,25 @@
       <c r="T70">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F71">
         <v>1622</v>
@@ -5145,13 +5301,13 @@
         <v>1623</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I71">
         <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -5183,22 +5339,25 @@
       <c r="T71">
         <v>40</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72">
         <v>1623</v>
@@ -5207,19 +5366,19 @@
         <v>1657</v>
       </c>
       <c r="H72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I72">
         <v>53</v>
       </c>
       <c r="J72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K72">
         <v>10</v>
       </c>
       <c r="L72" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M72" t="s">
         <v>65</v>
@@ -5245,22 +5404,25 @@
       <c r="T72">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F73">
         <v>1657</v>
@@ -5269,19 +5431,16 @@
         <v>1684</v>
       </c>
       <c r="H73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I73">
         <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K73">
         <v>10</v>
-      </c>
-      <c r="L73" t="s">
-        <v>58</v>
       </c>
       <c r="M73" t="s">
         <v>59</v>
@@ -5307,22 +5466,25 @@
       <c r="T73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74">
         <v>1684</v>
@@ -5331,19 +5493,16 @@
         <v>1685</v>
       </c>
       <c r="H74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I74">
         <v>30</v>
       </c>
       <c r="J74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K74">
         <v>10</v>
-      </c>
-      <c r="L74" t="s">
-        <v>56</v>
       </c>
       <c r="M74" t="s">
         <v>59</v>
@@ -5369,22 +5528,25 @@
       <c r="T74">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75">
         <v>1685</v>
@@ -5393,19 +5555,19 @@
         <v>1713</v>
       </c>
       <c r="H75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I75">
         <v>55</v>
       </c>
       <c r="J75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K75">
         <v>10</v>
       </c>
       <c r="L75" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M75" t="s">
         <v>63</v>
@@ -5431,22 +5593,25 @@
       <c r="T75">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F76">
         <v>1713</v>
@@ -5455,19 +5620,19 @@
         <v>1739</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I76">
         <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K76">
         <v>10</v>
       </c>
       <c r="L76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M76" t="s">
         <v>59</v>
@@ -5493,22 +5658,25 @@
       <c r="T76">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F77">
         <v>1739</v>
@@ -5517,13 +5685,13 @@
         <v>1740</v>
       </c>
       <c r="H77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I77">
         <v>8</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -5555,22 +5723,25 @@
       <c r="T77">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F78">
         <v>1740</v>
@@ -5579,19 +5750,16 @@
         <v>1775</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78">
         <v>65</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K78">
         <v>10</v>
-      </c>
-      <c r="L78" t="s">
-        <v>55</v>
       </c>
       <c r="M78" t="s">
         <v>64</v>
@@ -5617,22 +5785,25 @@
       <c r="T78">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F79">
         <v>1775</v>
@@ -5641,19 +5812,16 @@
         <v>1801</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I79">
         <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K79">
         <v>10</v>
-      </c>
-      <c r="L79" t="s">
-        <v>58</v>
       </c>
       <c r="M79" t="s">
         <v>62</v>
@@ -5679,22 +5847,25 @@
       <c r="T79">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80">
         <v>1801</v>
@@ -5703,19 +5874,16 @@
         <v>1802</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I80">
         <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
         <v>10</v>
-      </c>
-      <c r="L80" t="s">
-        <v>56</v>
       </c>
       <c r="M80" t="s">
         <v>61</v>
@@ -5741,22 +5909,25 @@
       <c r="T80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F81">
         <v>1802</v>
@@ -5765,19 +5936,19 @@
         <v>1830</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I81">
         <v>80</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
         <v>10</v>
       </c>
       <c r="L81" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M81" t="s">
         <v>63</v>
@@ -5803,22 +5974,25 @@
       <c r="T81">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82">
         <v>1830</v>
@@ -5827,19 +6001,16 @@
         <v>1855</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82">
         <v>40</v>
       </c>
       <c r="J82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K82">
         <v>10</v>
-      </c>
-      <c r="L82" t="s">
-        <v>58</v>
       </c>
       <c r="M82" t="s">
         <v>59</v>
@@ -5865,22 +6036,25 @@
       <c r="T82">
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F83">
         <v>1855</v>
@@ -5889,19 +6063,16 @@
         <v>1856</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I83">
         <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K83">
         <v>10</v>
-      </c>
-      <c r="L83" t="s">
-        <v>56</v>
       </c>
       <c r="M83" t="s">
         <v>62</v>
@@ -5927,22 +6098,25 @@
       <c r="T83">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F84">
         <v>1856</v>
@@ -5951,19 +6125,19 @@
         <v>1888</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I84">
         <v>53</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K84">
         <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M84" t="s">
         <v>65</v>
@@ -5989,22 +6163,25 @@
       <c r="T84">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F85">
         <v>1888</v>
@@ -6013,19 +6190,19 @@
         <v>1914</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I85">
         <v>17</v>
       </c>
       <c r="J85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K85">
         <v>10</v>
       </c>
       <c r="L85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M85" t="s">
         <v>62</v>
@@ -6051,22 +6228,25 @@
       <c r="T85">
         <v>40</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F86">
         <v>1914</v>
@@ -6075,13 +6255,13 @@
         <v>1915</v>
       </c>
       <c r="H86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I86">
         <v>28</v>
       </c>
       <c r="J86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -6113,22 +6293,25 @@
       <c r="T86">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F87">
         <v>1915</v>
@@ -6137,19 +6320,16 @@
         <v>1943</v>
       </c>
       <c r="H87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I87">
         <v>55</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K87">
         <v>10</v>
-      </c>
-      <c r="L87" t="s">
-        <v>55</v>
       </c>
       <c r="M87" t="s">
         <v>63</v>
@@ -6175,22 +6355,25 @@
       <c r="T87">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F88">
         <v>1943</v>
@@ -6199,19 +6382,16 @@
         <v>1968</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I88">
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <v>10</v>
-      </c>
-      <c r="L88" t="s">
-        <v>58</v>
       </c>
       <c r="M88" t="s">
         <v>59</v>
@@ -6237,22 +6417,25 @@
       <c r="T88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89">
         <v>1968</v>
@@ -6261,13 +6444,13 @@
         <v>1969</v>
       </c>
       <c r="H89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I89">
         <v>10</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K89">
         <v>10</v>
@@ -6299,22 +6482,25 @@
       <c r="T89">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F90">
         <v>1969</v>
@@ -6323,19 +6509,19 @@
         <v>1990</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90">
         <v>68</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <v>10</v>
       </c>
       <c r="L90" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M90" t="s">
         <v>64</v>
@@ -6361,22 +6547,25 @@
       <c r="T90">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="U90">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91">
         <v>1990</v>
@@ -6385,19 +6574,19 @@
         <v>1991</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I91">
         <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
         <v>10</v>
       </c>
       <c r="L91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M91" t="s">
         <v>62</v>
@@ -6423,22 +6612,25 @@
       <c r="T91">
         <v>40</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="U91">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F92">
         <v>1991</v>
@@ -6447,19 +6639,16 @@
         <v>2000</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I92">
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K92">
         <v>10</v>
-      </c>
-      <c r="L92" t="s">
-        <v>55</v>
       </c>
       <c r="M92" t="s">
         <v>63</v>
@@ -6484,6 +6673,9 @@
       </c>
       <c r="T92">
         <v>85</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CE_procesado.xlsx
+++ b/CE_procesado.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50E981-616E-4762-A602-B6D11369ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -508,8 +514,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,13 +578,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -616,7 +630,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -650,6 +664,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -684,9 +699,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -859,14 +875,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="P92" sqref="P92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -975,13 +993,13 @@
         <v>66</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
         <v>157</v>
@@ -993,7 +1011,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1037,13 +1055,13 @@
         <v>67</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S3" t="s">
         <v>158</v>
@@ -1052,10 +1070,10 @@
         <v>25</v>
       </c>
       <c r="U3">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1099,10 +1117,10 @@
         <v>68</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1117,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1161,10 +1179,10 @@
         <v>69</v>
       </c>
       <c r="P5">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1179,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1223,13 +1241,13 @@
         <v>70</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
         <v>157</v>
@@ -1241,7 +1259,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1285,13 +1303,13 @@
         <v>71</v>
       </c>
       <c r="P7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>160</v>
@@ -1303,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1347,13 +1365,13 @@
         <v>72</v>
       </c>
       <c r="P8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S8" t="s">
         <v>158</v>
@@ -1365,7 +1383,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1409,13 +1427,13 @@
         <v>73</v>
       </c>
       <c r="P9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>159</v>
@@ -1427,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1471,13 +1489,13 @@
         <v>74</v>
       </c>
       <c r="P10">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>159</v>
@@ -1489,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1533,13 +1551,13 @@
         <v>75</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S11" t="s">
         <v>157</v>
@@ -1551,7 +1569,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1595,13 +1613,13 @@
         <v>76</v>
       </c>
       <c r="P12">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S12" t="s">
         <v>160</v>
@@ -1613,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1737,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1781,13 +1799,13 @@
         <v>79</v>
       </c>
       <c r="P15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S15" t="s">
         <v>158</v>
@@ -1796,10 +1814,10 @@
         <v>25</v>
       </c>
       <c r="U15">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1843,13 +1861,13 @@
         <v>80</v>
       </c>
       <c r="P16">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S16" t="s">
         <v>160</v>
@@ -1861,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1905,13 +1923,13 @@
         <v>81</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S17" t="s">
         <v>157</v>
@@ -1923,7 +1941,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1967,13 +1985,13 @@
         <v>82</v>
       </c>
       <c r="P18">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S18" t="s">
         <v>159</v>
@@ -1985,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2029,13 +2047,13 @@
         <v>83</v>
       </c>
       <c r="P19">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>160</v>
@@ -2047,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2091,13 +2109,13 @@
         <v>84</v>
       </c>
       <c r="P20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S20" t="s">
         <v>157</v>
@@ -2109,7 +2127,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2153,10 +2171,10 @@
         <v>85</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2171,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2215,10 +2233,10 @@
         <v>86</v>
       </c>
       <c r="P22">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2233,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>85</v>
       </c>
       <c r="R23">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s">
         <v>157</v>
@@ -2298,7 +2316,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2345,13 +2363,13 @@
         <v>88</v>
       </c>
       <c r="P24">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s">
         <v>160</v>
@@ -2363,7 +2381,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2410,10 +2428,10 @@
         <v>89</v>
       </c>
       <c r="P25">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="R25">
         <v>85</v>
@@ -2428,7 +2446,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2493,7 +2511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2623,7 +2641,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2667,13 +2685,13 @@
         <v>93</v>
       </c>
       <c r="P29">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S29" t="s">
         <v>159</v>
@@ -2685,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2729,13 +2747,13 @@
         <v>94</v>
       </c>
       <c r="P30">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S30" t="s">
         <v>159</v>
@@ -2747,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2830,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2847,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M32" t="s">
         <v>62</v>
@@ -2865,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S32" t="s">
         <v>161</v>
@@ -2874,10 +2892,10 @@
         <v>40</v>
       </c>
       <c r="U32">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="R33">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s">
         <v>157</v>
@@ -2942,7 +2960,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="Q35">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="R35">
         <v>80</v>
@@ -3072,7 +3090,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3134,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3181,13 +3199,13 @@
         <v>101</v>
       </c>
       <c r="P37">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="Q37">
         <v>10</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="S37" t="s">
         <v>159</v>
@@ -3196,10 +3214,10 @@
         <v>60</v>
       </c>
       <c r="U37">
-        <v>4.81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -3305,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="P39">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S39" t="s">
         <v>158</v>
@@ -3323,7 +3341,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -3367,10 +3385,10 @@
         <v>104</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3385,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -3450,7 +3468,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -3497,13 +3515,13 @@
         <v>106</v>
       </c>
       <c r="P42">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R42">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="S42" t="s">
         <v>158</v>
@@ -3515,7 +3533,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -3562,13 +3580,13 @@
         <v>107</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R43">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S43" t="s">
         <v>157</v>
@@ -3580,7 +3598,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3686,13 +3704,13 @@
         <v>109</v>
       </c>
       <c r="P45">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S45" t="s">
         <v>159</v>
@@ -3704,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -3748,13 +3766,13 @@
         <v>110</v>
       </c>
       <c r="P46">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S46" t="s">
         <v>160</v>
@@ -3766,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3810,13 +3828,13 @@
         <v>111</v>
       </c>
       <c r="P47">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S47" t="s">
         <v>160</v>
@@ -3828,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -3872,13 +3890,13 @@
         <v>112</v>
       </c>
       <c r="P48">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S48" t="s">
         <v>160</v>
@@ -3890,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3934,13 +3952,13 @@
         <v>113</v>
       </c>
       <c r="P49">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S49" t="s">
         <v>159</v>
@@ -3952,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -3996,13 +4014,13 @@
         <v>114</v>
       </c>
       <c r="P50">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S50" t="s">
         <v>160</v>
@@ -4014,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4058,10 +4076,10 @@
         <v>115</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4076,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4120,13 +4138,13 @@
         <v>116</v>
       </c>
       <c r="P52">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S52" t="s">
         <v>160</v>
@@ -4138,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4182,13 +4200,13 @@
         <v>117</v>
       </c>
       <c r="P53">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S53" t="s">
         <v>160</v>
@@ -4200,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -4244,13 +4262,13 @@
         <v>118</v>
       </c>
       <c r="P54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S54" t="s">
         <v>157</v>
@@ -4262,7 +4280,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -4306,10 +4324,10 @@
         <v>119</v>
       </c>
       <c r="P55">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4324,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4389,7 +4407,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -4442,7 +4460,7 @@
         <v>85</v>
       </c>
       <c r="R57">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="S57" t="s">
         <v>157</v>
@@ -4451,10 +4469,10 @@
         <v>10</v>
       </c>
       <c r="U57">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -4519,7 +4537,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -4581,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4625,13 +4643,13 @@
         <v>124</v>
       </c>
       <c r="P60">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S60" t="s">
         <v>158</v>
@@ -4640,10 +4658,10 @@
         <v>25</v>
       </c>
       <c r="U60">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -4678,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="L61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M61" t="s">
         <v>62</v>
@@ -4696,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S61" t="s">
         <v>161</v>
@@ -4708,7 +4726,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -4761,7 +4779,7 @@
         <v>85</v>
       </c>
       <c r="R62">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="S62" t="s">
         <v>157</v>
@@ -4773,7 +4791,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -4838,7 +4856,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -4888,7 +4906,7 @@
         <v>15</v>
       </c>
       <c r="Q64">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R64">
         <v>70</v>
@@ -4903,7 +4921,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -4965,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -5012,13 +5030,13 @@
         <v>130</v>
       </c>
       <c r="P66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S66" t="s">
         <v>157</v>
@@ -5030,7 +5048,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -5074,10 +5092,10 @@
         <v>131</v>
       </c>
       <c r="P67">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5092,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -5136,10 +5154,10 @@
         <v>132</v>
       </c>
       <c r="P68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5154,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -5198,13 +5216,13 @@
         <v>133</v>
       </c>
       <c r="P69">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S69" t="s">
         <v>160</v>
@@ -5216,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -5260,13 +5278,13 @@
         <v>134</v>
       </c>
       <c r="P70">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S70" t="s">
         <v>159</v>
@@ -5278,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -5328,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -5343,7 +5361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5408,7 +5426,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5452,13 +5470,13 @@
         <v>137</v>
       </c>
       <c r="P73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S73" t="s">
         <v>157</v>
@@ -5470,7 +5488,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -5514,13 +5532,13 @@
         <v>138</v>
       </c>
       <c r="P74">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S74" t="s">
         <v>158</v>
@@ -5532,7 +5550,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -5597,7 +5615,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -5647,7 +5665,7 @@
         <v>10</v>
       </c>
       <c r="Q76">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="R76">
         <v>80</v>
@@ -5662,7 +5680,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5724,10 +5742,10 @@
         <v>15</v>
       </c>
       <c r="U77">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -5771,13 +5789,13 @@
         <v>142</v>
       </c>
       <c r="P78">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S78" t="s">
         <v>160</v>
@@ -5789,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -5913,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>21</v>
       </c>
@@ -5978,7 +5996,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -6022,13 +6040,13 @@
         <v>146</v>
       </c>
       <c r="P82">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S82" t="s">
         <v>159</v>
@@ -6040,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -6167,7 +6185,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -6220,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S85" t="s">
         <v>161</v>
@@ -6232,7 +6250,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -6285,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="R86">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="S86" t="s">
         <v>158</v>
@@ -6294,10 +6312,10 @@
         <v>20</v>
       </c>
       <c r="U86">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -6341,13 +6359,13 @@
         <v>151</v>
       </c>
       <c r="P87">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S87" t="s">
         <v>159</v>
@@ -6359,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -6403,13 +6421,13 @@
         <v>152</v>
       </c>
       <c r="P88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S88" t="s">
         <v>157</v>
@@ -6421,7 +6439,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -6486,7 +6504,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -6604,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S91" t="s">
         <v>161</v>
@@ -6616,7 +6634,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -6660,13 +6678,13 @@
         <v>156</v>
       </c>
       <c r="P92">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S92" t="s">
         <v>160</v>
